--- a/Datos/Anuario2024/120503_CensoAlbufera.xlsx
+++ b/Datos/Anuario2024/120503_CensoAlbufera.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="13" r:id="rId1"/>
+    <sheet name="1" sheetId="16" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -54,87 +60,599 @@
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="169">
+  <si>
+    <t>Cuchara común</t>
+  </si>
+  <si>
+    <t>Porrón europeo</t>
+  </si>
+  <si>
+    <t>Focha moruna</t>
+  </si>
+  <si>
+    <t>Rascón europeo</t>
+  </si>
+  <si>
+    <t>Gallineta común</t>
+  </si>
+  <si>
+    <t>Cigüeñuela común</t>
+  </si>
+  <si>
+    <t>Avoceta común</t>
+  </si>
+  <si>
+    <t>Canastera común</t>
+  </si>
+  <si>
+    <t>Chorlitejo grande</t>
+  </si>
+  <si>
+    <t>Avefría europea</t>
+  </si>
+  <si>
+    <t>Cerceta carretona</t>
+  </si>
+  <si>
+    <t>Anas querquedula</t>
+  </si>
+  <si>
+    <t>Fumarel cariblanco</t>
+  </si>
+  <si>
+    <t>Chlidonias hybridus</t>
+  </si>
+  <si>
+    <t>Espátula común</t>
+  </si>
+  <si>
+    <t>Platalea leucorodia</t>
+  </si>
+  <si>
+    <t>Andarríos bastardo</t>
+  </si>
+  <si>
+    <t>Tringa glareola</t>
+  </si>
+  <si>
+    <t>Botaurus stellaris</t>
+  </si>
+  <si>
+    <t>Avetoro común</t>
+  </si>
+  <si>
+    <t>Flamenco común</t>
+  </si>
+  <si>
+    <t>Phoenicopterus roseus</t>
+  </si>
+  <si>
+    <t>Melanitta nigra</t>
+  </si>
+  <si>
+    <t>Serreta común</t>
+  </si>
+  <si>
+    <t>Mergus serrator</t>
+  </si>
+  <si>
+    <t>Aguja colipinta</t>
+  </si>
+  <si>
+    <t>Limosa lapponica</t>
+  </si>
+  <si>
+    <t>Tachybaptus ruficollis</t>
+  </si>
+  <si>
+    <t>Somormujo lavanco</t>
+  </si>
+  <si>
+    <t>Podiceps cristatus</t>
+  </si>
+  <si>
+    <t>Cormorán grande</t>
+  </si>
+  <si>
+    <t>Phalacrocorax carbo</t>
+  </si>
+  <si>
+    <t>Nycticorax nycticorax</t>
+  </si>
+  <si>
+    <t>Garcilla cangrejera</t>
+  </si>
+  <si>
+    <t>Ardeola ralloides</t>
+  </si>
+  <si>
+    <t>Garcilla bueyera</t>
+  </si>
+  <si>
+    <t>Bubulcus ibis</t>
+  </si>
+  <si>
+    <t>Garceta común</t>
+  </si>
+  <si>
+    <t>Egretta garzetta</t>
+  </si>
+  <si>
+    <t>Garceta grande</t>
+  </si>
+  <si>
+    <t>Garza real</t>
+  </si>
+  <si>
+    <t>Ardea cinerea</t>
+  </si>
+  <si>
+    <t>Garza imperial</t>
+  </si>
+  <si>
+    <t>Ardea purpurea</t>
+  </si>
+  <si>
+    <t>Tarro blanco</t>
+  </si>
+  <si>
+    <t>Tadorna tadorna</t>
+  </si>
+  <si>
+    <t>Anas penelope</t>
+  </si>
+  <si>
+    <t>Anas strepera</t>
+  </si>
+  <si>
+    <t>Cerceta común</t>
+  </si>
+  <si>
+    <t>Anas crecca</t>
+  </si>
+  <si>
+    <t>Anas platyrhynchos</t>
+  </si>
+  <si>
+    <t>Anas acuta</t>
+  </si>
+  <si>
+    <t>Anas clypeata</t>
+  </si>
+  <si>
+    <t>Pato colorado</t>
+  </si>
+  <si>
+    <t>Netta rufina</t>
+  </si>
+  <si>
+    <t>Aythya ferina</t>
+  </si>
+  <si>
+    <t>Porrón moñudo</t>
+  </si>
+  <si>
+    <t>Aythya fuligula</t>
+  </si>
+  <si>
+    <t>Aguilucho lagunero</t>
+  </si>
+  <si>
+    <t>Circus aeruginosus</t>
+  </si>
+  <si>
+    <t>Rallus aquaticus</t>
+  </si>
+  <si>
+    <t>Calamón común</t>
+  </si>
+  <si>
+    <t>Porphyrio porphyrio</t>
+  </si>
+  <si>
+    <t>Focha común</t>
+  </si>
+  <si>
+    <t>Fulica atra</t>
+  </si>
+  <si>
+    <t>Himantopus himantopus</t>
+  </si>
+  <si>
+    <t>Recurvirostra avosetta</t>
+  </si>
+  <si>
+    <t>Glareola pratincola</t>
+  </si>
+  <si>
+    <t>Charadrius hiaticula</t>
+  </si>
+  <si>
+    <t>Chorlitejo chico</t>
+  </si>
+  <si>
+    <t>Charadrius dubius</t>
+  </si>
+  <si>
+    <t>Chorlitejo patinegro</t>
+  </si>
+  <si>
+    <t>Charadrius alexandrinus</t>
+  </si>
+  <si>
+    <t>Chorlito dorado</t>
+  </si>
+  <si>
+    <t>Pluvialis apricaria</t>
+  </si>
+  <si>
+    <t>Chorlito gris</t>
+  </si>
+  <si>
+    <t>Vanellus vanellus</t>
+  </si>
+  <si>
+    <t>Calidris alba</t>
+  </si>
+  <si>
+    <t>Correlimos menudo</t>
+  </si>
+  <si>
+    <t>Calidris minuta</t>
+  </si>
+  <si>
+    <t>Correlimos común</t>
+  </si>
+  <si>
+    <t>Calidris alpina</t>
+  </si>
+  <si>
+    <t>Combatiente</t>
+  </si>
+  <si>
+    <t>Philomachus pugnax</t>
+  </si>
+  <si>
+    <t>Agachadiza común</t>
+  </si>
+  <si>
+    <t>Gallinago gallinago</t>
+  </si>
+  <si>
+    <t>Aguja colinegra</t>
+  </si>
+  <si>
+    <t>Limosa limosa</t>
+  </si>
+  <si>
+    <t>Archibebe oscuro</t>
+  </si>
+  <si>
+    <t>Gaviota reidora</t>
+  </si>
+  <si>
+    <t>Larus ridibundus</t>
+  </si>
+  <si>
+    <t>Ejemplares que hibernan</t>
+  </si>
+  <si>
+    <t>Parejas que nidifican</t>
+  </si>
+  <si>
+    <t>Gaviota picofina</t>
+  </si>
+  <si>
+    <t>Larus genei</t>
+  </si>
+  <si>
+    <t>Gaviota sombría</t>
+  </si>
+  <si>
+    <t>Larus fuscus</t>
+  </si>
+  <si>
+    <t>Pagaza piconegra</t>
+  </si>
+  <si>
+    <t>Charrán patinegro</t>
+  </si>
+  <si>
+    <t>Sterna hirundo</t>
+  </si>
+  <si>
+    <t>Charrancito</t>
+  </si>
+  <si>
+    <t>Sterna albifrons</t>
+  </si>
+  <si>
+    <t>Actitis hypoleucos</t>
+  </si>
+  <si>
+    <t>Zampullín cuellinegro</t>
+  </si>
+  <si>
+    <t>Podiceps nigricollis</t>
+  </si>
+  <si>
+    <t>Andarríos chico</t>
+  </si>
+  <si>
+    <t>Andarríos grande</t>
+  </si>
+  <si>
+    <t>Tringa ochropus</t>
+  </si>
+  <si>
+    <t>Gaviota de Audouin</t>
+  </si>
+  <si>
+    <t>Gaviota cabecinegra</t>
+  </si>
+  <si>
+    <t>Tringa nebularia</t>
+  </si>
+  <si>
+    <t>Sterna sandvicensis</t>
+  </si>
+  <si>
+    <t>Ixobrychus minutus</t>
+  </si>
+  <si>
+    <t>Egretta alba</t>
+  </si>
+  <si>
+    <t>Plegadis falcinellus</t>
+  </si>
+  <si>
+    <t>Fulica cristata</t>
+  </si>
+  <si>
+    <t>Pluvialis squatarola</t>
+  </si>
+  <si>
+    <t>Gaviota patiamarilla</t>
+  </si>
+  <si>
+    <t>Gallinula chloropus</t>
+  </si>
+  <si>
+    <t>Larus michahellis</t>
+  </si>
+  <si>
+    <t>Malvasía cabeciblanca</t>
+  </si>
+  <si>
+    <t>Oxyura leucocephala</t>
+  </si>
+  <si>
+    <t>Avetorillo común</t>
+  </si>
+  <si>
+    <t>Martinete común</t>
+  </si>
+  <si>
+    <t>Morito común</t>
+  </si>
+  <si>
+    <t>Aythya nyroca</t>
+  </si>
+  <si>
+    <t>Correlimos tridáctilo</t>
+  </si>
+  <si>
+    <t>Archibebe claro</t>
+  </si>
+  <si>
+    <t>Ánade friso</t>
+  </si>
+  <si>
+    <t>Ánade rabudo</t>
+  </si>
+  <si>
+    <t>Grulla común</t>
+  </si>
+  <si>
+    <t>Grus grus</t>
+  </si>
+  <si>
+    <t>Gelochelidon nilotica</t>
+  </si>
+  <si>
+    <t>Archibebe común</t>
+  </si>
+  <si>
+    <t>Tringa totanus</t>
+  </si>
+  <si>
+    <t>Agachadiza chica</t>
+  </si>
+  <si>
+    <t>Larus audouinii</t>
+  </si>
+  <si>
+    <t>Nombre científico</t>
+  </si>
+  <si>
+    <t>Zampullín común</t>
+  </si>
+  <si>
+    <t>Nombre común</t>
+  </si>
+  <si>
+    <t>Marmorenetta angustirostris</t>
+  </si>
+  <si>
+    <t>Zarapito real</t>
+  </si>
+  <si>
+    <t>Numenius arquata</t>
+  </si>
+  <si>
+    <t>Gaviota argéntea</t>
+  </si>
+  <si>
+    <t>Larus argentatus</t>
+  </si>
+  <si>
+    <t>Águila pescadora</t>
+  </si>
+  <si>
+    <t>Pandion haliaetus</t>
+  </si>
+  <si>
+    <t>Cerceta pardilla</t>
+  </si>
+  <si>
+    <t>Correlimos gordo</t>
+  </si>
+  <si>
+    <t>Calidris canutus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: Censos realizados con la colaboración del Servicio Devesa-Albufera del Ajuntamiento de València y SEO/BirdLife; </t>
+  </si>
+  <si>
+    <t>CENSO DE AVES ACUÁTICAS</t>
+  </si>
+  <si>
+    <t>Ánsar común</t>
+  </si>
+  <si>
+    <t>Anser anser</t>
+  </si>
+  <si>
+    <t>Anade silbón</t>
+  </si>
+  <si>
+    <t>Anade azulón</t>
+  </si>
+  <si>
+    <t>Porrón pardo</t>
+  </si>
+  <si>
+    <t>Negrón común</t>
+  </si>
+  <si>
+    <t>Lymnocryptes minimus</t>
+  </si>
+  <si>
+    <t>Tringa erytrophus</t>
+  </si>
+  <si>
+    <t>L. melanocephalus</t>
+  </si>
+  <si>
+    <t>Charrán común</t>
+  </si>
+  <si>
+    <t>Enero 2023</t>
+  </si>
+  <si>
+    <t>Primavera-verano 2023</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1. Censo de aves acuáticas en el Parque Natural de la Albufera. 2023</t>
+  </si>
+  <si>
+    <t>Nota: (-) No estimado. Los censos de hibernada se refieren al número de ejemplres contados en enero 2023.</t>
+  </si>
+  <si>
+    <t>Los censos de nidificantes se refieren al número de parejas reproductoras estimadas durante la primavera 2023.</t>
+  </si>
+  <si>
+    <t>Datos compilados por el Servicio de Vida Silvestre de la Dirección General de Medio Natural y de Evaluación Ambiental de la Generalitat Valenciana.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -163,69 +681,70 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="17" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -295,12 +814,20 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2144,2314 +2671,1956 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja23">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:DJ739"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.7109375" customWidth="1" style="13" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" style="2" min="4" max="114"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="4" max="114" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="13">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>CENSO DE AVES ACUÁTICAS</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="n"/>
-    </row>
-    <row r="2" customFormat="1" s="2"/>
-    <row r="3" customFormat="1" s="2"/>
-    <row r="4" customFormat="1" s="2"/>
-    <row r="5" customFormat="1" s="2"/>
-    <row r="6" customFormat="1" s="2"/>
-    <row r="7" customFormat="1" s="2"/>
-    <row r="8" customFormat="1" s="2"/>
-    <row r="9" customFormat="1" s="2"/>
-    <row r="10" customFormat="1" s="2"/>
-    <row r="11" customFormat="1" s="2"/>
-    <row r="12" customFormat="1" s="2"/>
-    <row r="13" customFormat="1" s="2"/>
-    <row r="14" customFormat="1" s="2"/>
-    <row r="15" customFormat="1" s="2"/>
-    <row r="16" customFormat="1" s="2"/>
-    <row r="17" customFormat="1" s="2"/>
-    <row r="18" customFormat="1" s="2"/>
-    <row r="19" customFormat="1" s="2"/>
-    <row r="20" customFormat="1" s="2"/>
-    <row r="21" customFormat="1" s="2"/>
-    <row r="22" customFormat="1" s="2"/>
-    <row r="23" customFormat="1" s="2"/>
-    <row r="24" customFormat="1" s="2"/>
-    <row r="25" customFormat="1" s="2"/>
-    <row r="26" customFormat="1" s="2"/>
-    <row r="27" customFormat="1" s="2"/>
-    <row r="28" customFormat="1" s="2"/>
-    <row r="29" customFormat="1" s="2"/>
-    <row r="30" customFormat="1" s="2"/>
-    <row r="31" customFormat="1" s="2"/>
-    <row r="32" customFormat="1" s="2"/>
-    <row r="33" customFormat="1" s="2"/>
-    <row r="34" customFormat="1" s="2"/>
-    <row r="35" customFormat="1" s="2"/>
-    <row r="36" customFormat="1" s="2"/>
-    <row r="37" customFormat="1" s="2"/>
-    <row r="38" customFormat="1" s="2"/>
-    <row r="39" customFormat="1" s="2"/>
-    <row r="40" customFormat="1" s="2"/>
-    <row r="41" customFormat="1" s="2"/>
-    <row r="42" customFormat="1" s="2"/>
-    <row r="43" customFormat="1" s="2"/>
-    <row r="44" customFormat="1" s="2"/>
-    <row r="45" customFormat="1" s="2"/>
-    <row r="46" customFormat="1" s="2"/>
-    <row r="47" customFormat="1" s="2"/>
-    <row r="48" customFormat="1" s="2"/>
-    <row r="49" customFormat="1" s="2"/>
-    <row r="50" customFormat="1" s="2"/>
-    <row r="51" customFormat="1" s="2"/>
-    <row r="52" customFormat="1" s="2"/>
-    <row r="53" customFormat="1" s="2"/>
-    <row r="54" customFormat="1" s="2"/>
-    <row r="55" customFormat="1" s="2"/>
-    <row r="56" customFormat="1" s="2"/>
-    <row r="57" customFormat="1" s="2"/>
-    <row r="58" customFormat="1" s="2"/>
-    <row r="59" customFormat="1" s="2"/>
-    <row r="60" customFormat="1" s="2"/>
-    <row r="61" customFormat="1" s="2"/>
-    <row r="62" customFormat="1" s="2"/>
-    <row r="63" customFormat="1" s="2"/>
-    <row r="64" customFormat="1" s="2"/>
-    <row r="65" customFormat="1" s="2"/>
-    <row r="66" customFormat="1" s="2"/>
-    <row r="67" customFormat="1" s="2"/>
-    <row r="68" customFormat="1" s="2"/>
-    <row r="69" customFormat="1" s="2"/>
-    <row r="70" customFormat="1" s="2"/>
-    <row r="71" customFormat="1" s="2"/>
-    <row r="72" customFormat="1" s="2"/>
-    <row r="73" customFormat="1" s="2"/>
-    <row r="74" customFormat="1" s="2"/>
-    <row r="75" customFormat="1" s="2"/>
-    <row r="76" customFormat="1" s="2"/>
-    <row r="77" customFormat="1" s="2"/>
-    <row r="78" customFormat="1" s="2"/>
-    <row r="79" customFormat="1" s="2"/>
-    <row r="80" customFormat="1" s="2"/>
-    <row r="81" customFormat="1" s="2"/>
-    <row r="82" customFormat="1" s="2"/>
-    <row r="83" customFormat="1" s="2"/>
-    <row r="84" customFormat="1" s="2"/>
-    <row r="85" customFormat="1" s="2"/>
-    <row r="86" customFormat="1" s="2"/>
-    <row r="87" customFormat="1" s="2"/>
-    <row r="88" customFormat="1" s="2"/>
-    <row r="89" customFormat="1" s="2"/>
-    <row r="90" customFormat="1" s="2"/>
-    <row r="91" customFormat="1" s="2"/>
-    <row r="92" customFormat="1" s="2"/>
-    <row r="93" customFormat="1" s="2"/>
-    <row r="94" customFormat="1" s="2"/>
-    <row r="95" customFormat="1" s="2"/>
-    <row r="96" customFormat="1" s="2"/>
-    <row r="97" customFormat="1" s="2"/>
-    <row r="98" customFormat="1" s="2"/>
-    <row r="99" customFormat="1" s="2"/>
-    <row r="100" customFormat="1" s="2"/>
-    <row r="101" customFormat="1" s="2"/>
-    <row r="102" customFormat="1" s="2"/>
-    <row r="103" customFormat="1" s="2"/>
-    <row r="104" customFormat="1" s="2"/>
-    <row r="105" customFormat="1" s="2"/>
-    <row r="106" customFormat="1" s="2"/>
-    <row r="107" customFormat="1" s="2"/>
-    <row r="108" customFormat="1" s="2"/>
-    <row r="109" customFormat="1" s="2"/>
-    <row r="110" customFormat="1" s="2"/>
-    <row r="111" customFormat="1" s="2"/>
-    <row r="112" customFormat="1" s="2"/>
-    <row r="113" customFormat="1" s="2"/>
-    <row r="114" customFormat="1" s="2"/>
-    <row r="115" customFormat="1" s="2"/>
-    <row r="116" customFormat="1" s="2"/>
-    <row r="117" customFormat="1" s="2"/>
-    <row r="118" customFormat="1" s="2"/>
-    <row r="119" customFormat="1" s="2"/>
-    <row r="120" customFormat="1" s="2"/>
-    <row r="121" customFormat="1" s="2"/>
-    <row r="122" customFormat="1" s="2"/>
-    <row r="123" customFormat="1" s="2"/>
-    <row r="124" customFormat="1" s="2"/>
-    <row r="125" customFormat="1" s="2"/>
-    <row r="126" customFormat="1" s="2"/>
-    <row r="127" customFormat="1" s="2"/>
-    <row r="128" customFormat="1" s="2"/>
-    <row r="129" customFormat="1" s="2"/>
-    <row r="130" customFormat="1" s="2"/>
-    <row r="131" customFormat="1" s="2"/>
-    <row r="132" customFormat="1" s="2"/>
-    <row r="133" customFormat="1" s="2"/>
-    <row r="134" customFormat="1" s="2"/>
-    <row r="135" customFormat="1" s="2"/>
-    <row r="136" customFormat="1" s="2"/>
-    <row r="137" customFormat="1" s="2"/>
-    <row r="138" customFormat="1" s="2"/>
-    <row r="139" customFormat="1" s="2"/>
-    <row r="140" customFormat="1" s="2"/>
-    <row r="141" customFormat="1" s="2"/>
-    <row r="142" customFormat="1" s="2"/>
-    <row r="143" customFormat="1" s="2"/>
-    <row r="144" customFormat="1" s="2"/>
-    <row r="145" customFormat="1" s="2"/>
-    <row r="146" customFormat="1" s="2"/>
-    <row r="147" customFormat="1" s="2"/>
-    <row r="148" customFormat="1" s="2"/>
-    <row r="149" customFormat="1" s="2"/>
-    <row r="150" customFormat="1" s="2"/>
-    <row r="151" customFormat="1" s="2"/>
-    <row r="152" customFormat="1" s="2"/>
-    <row r="153" customFormat="1" s="2"/>
-    <row r="154" customFormat="1" s="2"/>
-    <row r="155" customFormat="1" s="2"/>
-    <row r="156" customFormat="1" s="2"/>
-    <row r="157" customFormat="1" s="2"/>
-    <row r="158" customFormat="1" s="2"/>
-    <row r="159" customFormat="1" s="2"/>
-    <row r="160" customFormat="1" s="2"/>
-    <row r="161" customFormat="1" s="2"/>
-    <row r="162" customFormat="1" s="2"/>
-    <row r="163" customFormat="1" s="2"/>
-    <row r="164" customFormat="1" s="2"/>
-    <row r="165" customFormat="1" s="2"/>
-    <row r="166" customFormat="1" s="2"/>
-    <row r="167" customFormat="1" s="2"/>
-    <row r="168" customFormat="1" s="2"/>
-    <row r="169" customFormat="1" s="2"/>
-    <row r="170" customFormat="1" s="2"/>
-    <row r="171" customFormat="1" s="2"/>
-    <row r="172" customFormat="1" s="2"/>
-    <row r="173" customFormat="1" s="2"/>
-    <row r="174" customFormat="1" s="2"/>
-    <row r="175" customFormat="1" s="2"/>
-    <row r="176" customFormat="1" s="2"/>
-    <row r="177" customFormat="1" s="2"/>
-    <row r="178" customFormat="1" s="2"/>
-    <row r="179" customFormat="1" s="2"/>
-    <row r="180" customFormat="1" s="2"/>
-    <row r="181" customFormat="1" s="2"/>
-    <row r="182" customFormat="1" s="2"/>
-    <row r="183" customFormat="1" s="2"/>
-    <row r="184" customFormat="1" s="2"/>
-    <row r="185" customFormat="1" s="2"/>
-    <row r="186" customFormat="1" s="2"/>
-    <row r="187" customFormat="1" s="2"/>
-    <row r="188" customFormat="1" s="2"/>
-    <row r="189" customFormat="1" s="2"/>
-    <row r="190" customFormat="1" s="2"/>
-    <row r="191" customFormat="1" s="2"/>
-    <row r="192" customFormat="1" s="2"/>
-    <row r="193" customFormat="1" s="2"/>
-    <row r="194" customFormat="1" s="2"/>
-    <row r="195" customFormat="1" s="2"/>
-    <row r="196" customFormat="1" s="2"/>
-    <row r="197" customFormat="1" s="2"/>
-    <row r="198" customFormat="1" s="2"/>
-    <row r="199" customFormat="1" s="2"/>
-    <row r="200" customFormat="1" s="2"/>
-    <row r="201" customFormat="1" s="2"/>
-    <row r="202" customFormat="1" s="2"/>
-    <row r="203" customFormat="1" s="2"/>
-    <row r="204" customFormat="1" s="2"/>
-    <row r="205" customFormat="1" s="2"/>
-    <row r="206" customFormat="1" s="2"/>
-    <row r="207" customFormat="1" s="2"/>
-    <row r="208" customFormat="1" s="2"/>
-    <row r="209" customFormat="1" s="2"/>
-    <row r="210" customFormat="1" s="2"/>
-    <row r="211" customFormat="1" s="2"/>
-    <row r="212" customFormat="1" s="2"/>
-    <row r="213" customFormat="1" s="2"/>
-    <row r="214" customFormat="1" s="2"/>
-    <row r="215" customFormat="1" s="2"/>
-    <row r="216" customFormat="1" s="2"/>
-    <row r="217" customFormat="1" s="2"/>
-    <row r="218" customFormat="1" s="2"/>
-    <row r="219" customFormat="1" s="2"/>
-    <row r="220" customFormat="1" s="2"/>
-    <row r="221" customFormat="1" s="2"/>
-    <row r="222" customFormat="1" s="2"/>
-    <row r="223" customFormat="1" s="2"/>
-    <row r="224" customFormat="1" s="2"/>
-    <row r="225" customFormat="1" s="2"/>
-    <row r="226" customFormat="1" s="2"/>
-    <row r="227" customFormat="1" s="2"/>
-    <row r="228" customFormat="1" s="2"/>
-    <row r="229" customFormat="1" s="2"/>
-    <row r="230" customFormat="1" s="2"/>
-    <row r="231" customFormat="1" s="2"/>
-    <row r="232" customFormat="1" s="2"/>
-    <row r="233" customFormat="1" s="2"/>
-    <row r="234" customFormat="1" s="2"/>
-    <row r="235" customFormat="1" s="2"/>
-    <row r="236" customFormat="1" s="2"/>
-    <row r="237" customFormat="1" s="2"/>
-    <row r="238" customFormat="1" s="2"/>
-    <row r="239" customFormat="1" s="2"/>
-    <row r="240" customFormat="1" s="2"/>
-    <row r="241" customFormat="1" s="2"/>
-    <row r="242" customFormat="1" s="2"/>
-    <row r="243" customFormat="1" s="2"/>
-    <row r="244" customFormat="1" s="2"/>
-    <row r="245" customFormat="1" s="2"/>
-    <row r="246" customFormat="1" s="2"/>
-    <row r="247" customFormat="1" s="2"/>
-    <row r="248" customFormat="1" s="2"/>
-    <row r="249" customFormat="1" s="2"/>
-    <row r="250" customFormat="1" s="2"/>
-    <row r="251" customFormat="1" s="2"/>
-    <row r="252" customFormat="1" s="2"/>
-    <row r="253" customFormat="1" s="2"/>
-    <row r="254" customFormat="1" s="2"/>
-    <row r="255" customFormat="1" s="2"/>
-    <row r="256" customFormat="1" s="2"/>
-    <row r="257" customFormat="1" s="2"/>
-    <row r="258" customFormat="1" s="2"/>
-    <row r="259" customFormat="1" s="2"/>
-    <row r="260" customFormat="1" s="2"/>
-    <row r="261" customFormat="1" s="2"/>
-    <row r="262" customFormat="1" s="2"/>
-    <row r="263" customFormat="1" s="2"/>
-    <row r="264" customFormat="1" s="2"/>
-    <row r="265" customFormat="1" s="2"/>
-    <row r="266" customFormat="1" s="2"/>
-    <row r="267" customFormat="1" s="2"/>
-    <row r="268" customFormat="1" s="2"/>
-    <row r="269" customFormat="1" s="2"/>
-    <row r="270" customFormat="1" s="2"/>
-    <row r="271" customFormat="1" s="2"/>
-    <row r="272" customFormat="1" s="2"/>
-    <row r="273" customFormat="1" s="2"/>
-    <row r="274" customFormat="1" s="2"/>
-    <row r="275" customFormat="1" s="2"/>
-    <row r="276" customFormat="1" s="2"/>
-    <row r="277" customFormat="1" s="2"/>
-    <row r="278" customFormat="1" s="2"/>
-    <row r="279" customFormat="1" s="2"/>
-    <row r="280" customFormat="1" s="2"/>
-    <row r="281" customFormat="1" s="2"/>
-    <row r="282" customFormat="1" s="2"/>
-    <row r="283" customFormat="1" s="2"/>
-    <row r="284" customFormat="1" s="2"/>
-    <row r="285" customFormat="1" s="2"/>
-    <row r="286" customFormat="1" s="2"/>
-    <row r="287" customFormat="1" s="2"/>
-    <row r="288" customFormat="1" s="2"/>
-    <row r="289" customFormat="1" s="2"/>
-    <row r="290" customFormat="1" s="2"/>
-    <row r="291" customFormat="1" s="2"/>
-    <row r="292" customFormat="1" s="2"/>
-    <row r="293" customFormat="1" s="2"/>
-    <row r="294" customFormat="1" s="2"/>
-    <row r="295" customFormat="1" s="2"/>
-    <row r="296" customFormat="1" s="2"/>
-    <row r="297" customFormat="1" s="2"/>
-    <row r="298" customFormat="1" s="2"/>
-    <row r="299" customFormat="1" s="2"/>
-    <row r="300" customFormat="1" s="2"/>
-    <row r="301" customFormat="1" s="2"/>
-    <row r="302" customFormat="1" s="2"/>
-    <row r="303" customFormat="1" s="2"/>
-    <row r="304" customFormat="1" s="2"/>
-    <row r="305" customFormat="1" s="2"/>
-    <row r="306" customFormat="1" s="2"/>
-    <row r="307" customFormat="1" s="2"/>
-    <row r="308" customFormat="1" s="2"/>
-    <row r="309" customFormat="1" s="2"/>
-    <row r="310" customFormat="1" s="2"/>
-    <row r="311" customFormat="1" s="2"/>
-    <row r="312" customFormat="1" s="2"/>
-    <row r="313" customFormat="1" s="2"/>
-    <row r="314" customFormat="1" s="2"/>
-    <row r="315" customFormat="1" s="2"/>
-    <row r="316" customFormat="1" s="2"/>
-    <row r="317" customFormat="1" s="2"/>
-    <row r="318" customFormat="1" s="2"/>
-    <row r="319" customFormat="1" s="2"/>
-    <row r="320" customFormat="1" s="2"/>
-    <row r="321" customFormat="1" s="2"/>
-    <row r="322" customFormat="1" s="2"/>
-    <row r="323" customFormat="1" s="2"/>
-    <row r="324" customFormat="1" s="2"/>
-    <row r="325" customFormat="1" s="2"/>
-    <row r="326" customFormat="1" s="2"/>
-    <row r="327" customFormat="1" s="2"/>
-    <row r="328" customFormat="1" s="2"/>
-    <row r="329" customFormat="1" s="2"/>
-    <row r="330" customFormat="1" s="2"/>
-    <row r="331" customFormat="1" s="2"/>
-    <row r="332" customFormat="1" s="2"/>
-    <row r="333" customFormat="1" s="2"/>
-    <row r="334" customFormat="1" s="2"/>
-    <row r="335" customFormat="1" s="2"/>
-    <row r="336" customFormat="1" s="2"/>
-    <row r="337" customFormat="1" s="2"/>
-    <row r="338" customFormat="1" s="2"/>
-    <row r="339" customFormat="1" s="2"/>
-    <row r="340" customFormat="1" s="2"/>
-    <row r="341" customFormat="1" s="2"/>
-    <row r="342" customFormat="1" s="2"/>
-    <row r="343" customFormat="1" s="2"/>
-    <row r="344" customFormat="1" s="2"/>
-    <row r="345" customFormat="1" s="2"/>
-    <row r="346" customFormat="1" s="2"/>
-    <row r="347" customFormat="1" s="2"/>
-    <row r="348" customFormat="1" s="2"/>
-    <row r="349" customFormat="1" s="2"/>
-    <row r="350" customFormat="1" s="2"/>
-    <row r="351" customFormat="1" s="2"/>
-    <row r="352" customFormat="1" s="2"/>
-    <row r="353" customFormat="1" s="2"/>
-    <row r="354" customFormat="1" s="2"/>
-    <row r="355" customFormat="1" s="2"/>
-    <row r="356" customFormat="1" s="2"/>
-    <row r="357" customFormat="1" s="2"/>
-    <row r="358" customFormat="1" s="2"/>
-    <row r="359" customFormat="1" s="2"/>
-    <row r="360" customFormat="1" s="2"/>
-    <row r="361" customFormat="1" s="2"/>
-    <row r="362" customFormat="1" s="2"/>
-    <row r="363" customFormat="1" s="2"/>
-    <row r="364" customFormat="1" s="2"/>
-    <row r="365" customFormat="1" s="2"/>
-    <row r="366" customFormat="1" s="2"/>
-    <row r="367" customFormat="1" s="2"/>
-    <row r="368" customFormat="1" s="2"/>
-    <row r="369" customFormat="1" s="2"/>
-    <row r="370" customFormat="1" s="2"/>
-    <row r="371" customFormat="1" s="2"/>
-    <row r="372" customFormat="1" s="2"/>
-    <row r="373" customFormat="1" s="2"/>
-    <row r="374" customFormat="1" s="2"/>
-    <row r="375" customFormat="1" s="2"/>
-    <row r="376" customFormat="1" s="2"/>
-    <row r="377" customFormat="1" s="2"/>
-    <row r="378" customFormat="1" s="2"/>
-    <row r="379" customFormat="1" s="2"/>
-    <row r="380" customFormat="1" s="2"/>
-    <row r="381" customFormat="1" s="2"/>
-    <row r="382" customFormat="1" s="2"/>
-    <row r="383" customFormat="1" s="2"/>
-    <row r="384" customFormat="1" s="2"/>
-    <row r="385" customFormat="1" s="2"/>
-    <row r="386" customFormat="1" s="2"/>
-    <row r="387" customFormat="1" s="2"/>
-    <row r="388" customFormat="1" s="2"/>
-    <row r="389" customFormat="1" s="2"/>
-    <row r="390" customFormat="1" s="2"/>
-    <row r="391" customFormat="1" s="2"/>
-    <row r="392" customFormat="1" s="2"/>
-    <row r="393" customFormat="1" s="2"/>
-    <row r="394" customFormat="1" s="2"/>
-    <row r="395" customFormat="1" s="2"/>
-    <row r="396" customFormat="1" s="2"/>
-    <row r="397" customFormat="1" s="2"/>
-    <row r="398" customFormat="1" s="2"/>
-    <row r="399" customFormat="1" s="2"/>
-    <row r="400" customFormat="1" s="2"/>
-    <row r="401" customFormat="1" s="2"/>
-    <row r="402" customFormat="1" s="2"/>
-    <row r="403" customFormat="1" s="2"/>
-    <row r="404" customFormat="1" s="2"/>
-    <row r="405" customFormat="1" s="2"/>
-    <row r="406" customFormat="1" s="2"/>
-    <row r="407" customFormat="1" s="2"/>
-    <row r="408" customFormat="1" s="2"/>
-    <row r="409" customFormat="1" s="2"/>
-    <row r="410" customFormat="1" s="2"/>
-    <row r="411" customFormat="1" s="2"/>
-    <row r="412" customFormat="1" s="2"/>
-    <row r="413" customFormat="1" s="2"/>
-    <row r="414" customFormat="1" s="2"/>
-    <row r="415" customFormat="1" s="2"/>
-    <row r="416" customFormat="1" s="2"/>
-    <row r="417" customFormat="1" s="2"/>
-    <row r="418" customFormat="1" s="2"/>
-    <row r="419" customFormat="1" s="2"/>
-    <row r="420" customFormat="1" s="2"/>
-    <row r="421" customFormat="1" s="2"/>
-    <row r="422" customFormat="1" s="2"/>
-    <row r="423" customFormat="1" s="2"/>
-    <row r="424" customFormat="1" s="2"/>
-    <row r="425" customFormat="1" s="2"/>
-    <row r="426" customFormat="1" s="2"/>
-    <row r="427" customFormat="1" s="2"/>
-    <row r="428" customFormat="1" s="2"/>
-    <row r="429" customFormat="1" s="2"/>
-    <row r="430" customFormat="1" s="2"/>
-    <row r="431" customFormat="1" s="2"/>
-    <row r="432" customFormat="1" s="2"/>
-    <row r="433" customFormat="1" s="2"/>
-    <row r="434" customFormat="1" s="2"/>
-    <row r="435" customFormat="1" s="2"/>
-    <row r="436" customFormat="1" s="2"/>
-    <row r="437" customFormat="1" s="2"/>
-    <row r="438" customFormat="1" s="2"/>
-    <row r="439" customFormat="1" s="2"/>
-    <row r="440" customFormat="1" s="2"/>
-    <row r="441" customFormat="1" s="2"/>
-    <row r="442" customFormat="1" s="2"/>
-    <row r="443" customFormat="1" s="2"/>
-    <row r="444" customFormat="1" s="2"/>
-    <row r="445" customFormat="1" s="2"/>
-    <row r="446" customFormat="1" s="2"/>
-    <row r="447" customFormat="1" s="2"/>
-    <row r="448" customFormat="1" s="2"/>
-    <row r="449" customFormat="1" s="2"/>
-    <row r="450" customFormat="1" s="2"/>
-    <row r="451" customFormat="1" s="2"/>
-    <row r="452" customFormat="1" s="2"/>
-    <row r="453" customFormat="1" s="2"/>
-    <row r="454" customFormat="1" s="2"/>
-    <row r="455" customFormat="1" s="2"/>
-    <row r="456" customFormat="1" s="2"/>
-    <row r="457" customFormat="1" s="2"/>
-    <row r="458" customFormat="1" s="2"/>
-    <row r="459" customFormat="1" s="2"/>
-    <row r="460" customFormat="1" s="2"/>
-    <row r="461" customFormat="1" s="2"/>
-    <row r="462" customFormat="1" s="2"/>
-    <row r="463" customFormat="1" s="2"/>
-    <row r="464" customFormat="1" s="2"/>
-    <row r="465" customFormat="1" s="2"/>
-    <row r="466" customFormat="1" s="2"/>
-    <row r="467" customFormat="1" s="2"/>
-    <row r="468" customFormat="1" s="2"/>
-    <row r="469" customFormat="1" s="2"/>
-    <row r="470" customFormat="1" s="2"/>
-    <row r="471" customFormat="1" s="2"/>
-    <row r="472" customFormat="1" s="2"/>
-    <row r="473" customFormat="1" s="2"/>
-    <row r="474" customFormat="1" s="2"/>
-    <row r="475" customFormat="1" s="2"/>
-    <row r="476" customFormat="1" s="2"/>
-    <row r="477" customFormat="1" s="2"/>
-    <row r="478" customFormat="1" s="2"/>
-    <row r="479" customFormat="1" s="2"/>
-    <row r="480" customFormat="1" s="2"/>
-    <row r="481" customFormat="1" s="2"/>
-    <row r="482" customFormat="1" s="2"/>
-    <row r="483" customFormat="1" s="2"/>
-    <row r="484" customFormat="1" s="2"/>
-    <row r="485" customFormat="1" s="2"/>
-    <row r="486" customFormat="1" s="2"/>
-    <row r="487" customFormat="1" s="2"/>
-    <row r="488" customFormat="1" s="2"/>
-    <row r="489" customFormat="1" s="2"/>
-    <row r="490" customFormat="1" s="2"/>
-    <row r="491" customFormat="1" s="2"/>
-    <row r="492" customFormat="1" s="2"/>
-    <row r="493" customFormat="1" s="2"/>
-    <row r="494" customFormat="1" s="2"/>
-    <row r="495" customFormat="1" s="2"/>
-    <row r="496" customFormat="1" s="2"/>
-    <row r="497" customFormat="1" s="2"/>
-    <row r="498" customFormat="1" s="2"/>
-    <row r="499" customFormat="1" s="2"/>
-    <row r="500" customFormat="1" s="2"/>
-    <row r="501" customFormat="1" s="2"/>
-    <row r="502" customFormat="1" s="2"/>
-    <row r="503" customFormat="1" s="2"/>
-    <row r="504" customFormat="1" s="2"/>
-    <row r="505" customFormat="1" s="2"/>
-    <row r="506" customFormat="1" s="2"/>
-    <row r="507" customFormat="1" s="2"/>
-    <row r="508" customFormat="1" s="2"/>
-    <row r="509" customFormat="1" s="2"/>
-    <row r="510" customFormat="1" s="2"/>
-    <row r="511" customFormat="1" s="2"/>
-    <row r="512" customFormat="1" s="2"/>
-    <row r="513" customFormat="1" s="2"/>
-    <row r="514" customFormat="1" s="2"/>
-    <row r="515" customFormat="1" s="2"/>
-    <row r="516" customFormat="1" s="2"/>
-    <row r="517" customFormat="1" s="2"/>
-    <row r="518" customFormat="1" s="2"/>
-    <row r="519" customFormat="1" s="2"/>
-    <row r="520" customFormat="1" s="2"/>
-    <row r="521" customFormat="1" s="2"/>
-    <row r="522" customFormat="1" s="2"/>
-    <row r="523" customFormat="1" s="2"/>
-    <row r="524" customFormat="1" s="2"/>
-    <row r="525" customFormat="1" s="2"/>
-    <row r="526" customFormat="1" s="2"/>
-    <row r="527" customFormat="1" s="2"/>
-    <row r="528" customFormat="1" s="2"/>
-    <row r="529" customFormat="1" s="2"/>
-    <row r="530" customFormat="1" s="2"/>
-    <row r="531" customFormat="1" s="2"/>
-    <row r="532" customFormat="1" s="2"/>
-    <row r="533" customFormat="1" s="2"/>
-    <row r="534" customFormat="1" s="2"/>
-    <row r="535" customFormat="1" s="2"/>
-    <row r="536" customFormat="1" s="2"/>
-    <row r="537" customFormat="1" s="2"/>
-    <row r="538" customFormat="1" s="2"/>
-    <row r="539" customFormat="1" s="2"/>
-    <row r="540" customFormat="1" s="2"/>
-    <row r="541" customFormat="1" s="2"/>
-    <row r="542" customFormat="1" s="2"/>
-    <row r="543" customFormat="1" s="2"/>
-    <row r="544" customFormat="1" s="2"/>
-    <row r="545" customFormat="1" s="2"/>
-    <row r="546" customFormat="1" s="2"/>
-    <row r="547" customFormat="1" s="2"/>
-    <row r="548" customFormat="1" s="2"/>
-    <row r="549" customFormat="1" s="2"/>
-    <row r="550" customFormat="1" s="2"/>
-    <row r="551" customFormat="1" s="2"/>
-    <row r="552" customFormat="1" s="2"/>
-    <row r="553" customFormat="1" s="2"/>
-    <row r="554" customFormat="1" s="2"/>
-    <row r="555" customFormat="1" s="2"/>
-    <row r="556" customFormat="1" s="2"/>
-    <row r="557" customFormat="1" s="2"/>
-    <row r="558" customFormat="1" s="2"/>
-    <row r="559" customFormat="1" s="2"/>
-    <row r="560" customFormat="1" s="2"/>
-    <row r="561" customFormat="1" s="2"/>
-    <row r="562" customFormat="1" s="2"/>
-    <row r="563" customFormat="1" s="2"/>
-    <row r="564" customFormat="1" s="2"/>
-    <row r="565" customFormat="1" s="2"/>
-    <row r="566" customFormat="1" s="2"/>
-    <row r="567" customFormat="1" s="2"/>
-    <row r="568" customFormat="1" s="2"/>
-    <row r="569" customFormat="1" s="2"/>
-    <row r="570" customFormat="1" s="2"/>
-    <row r="571" customFormat="1" s="2"/>
-    <row r="572" customFormat="1" s="2"/>
-    <row r="573" customFormat="1" s="2"/>
-    <row r="574" customFormat="1" s="2"/>
-    <row r="575" customFormat="1" s="2"/>
-    <row r="576" customFormat="1" s="2"/>
-    <row r="577" customFormat="1" s="2"/>
-    <row r="578" customFormat="1" s="2"/>
-    <row r="579" customFormat="1" s="2"/>
-    <row r="580" customFormat="1" s="2"/>
-    <row r="581" customFormat="1" s="2"/>
-    <row r="582" customFormat="1" s="2"/>
-    <row r="583" customFormat="1" s="2"/>
-    <row r="584" customFormat="1" s="2"/>
-    <row r="585" customFormat="1" s="2"/>
-    <row r="586" customFormat="1" s="2"/>
-    <row r="587" customFormat="1" s="2"/>
-    <row r="588" customFormat="1" s="2"/>
-    <row r="589" customFormat="1" s="2"/>
-    <row r="590" customFormat="1" s="2"/>
-    <row r="591" customFormat="1" s="2"/>
-    <row r="592" customFormat="1" s="2"/>
-    <row r="593" customFormat="1" s="2"/>
-    <row r="594" customFormat="1" s="2"/>
-    <row r="595" customFormat="1" s="2"/>
-    <row r="596" customFormat="1" s="2"/>
-    <row r="597" customFormat="1" s="2"/>
-    <row r="598" customFormat="1" s="2"/>
-    <row r="599" customFormat="1" s="2"/>
-    <row r="600" customFormat="1" s="2"/>
-    <row r="601" customFormat="1" s="2"/>
-    <row r="602" customFormat="1" s="2"/>
-    <row r="603" customFormat="1" s="2"/>
-    <row r="604" customFormat="1" s="2"/>
-    <row r="605" customFormat="1" s="2"/>
-    <row r="606" customFormat="1" s="2"/>
-    <row r="607" customFormat="1" s="2"/>
-    <row r="608" customFormat="1" s="2"/>
-    <row r="609" customFormat="1" s="2"/>
-    <row r="610" customFormat="1" s="2"/>
-    <row r="611" customFormat="1" s="2"/>
-    <row r="612" customFormat="1" s="2"/>
-    <row r="613" customFormat="1" s="2"/>
-    <row r="614" customFormat="1" s="2"/>
-    <row r="615" customFormat="1" s="2"/>
-    <row r="616" customFormat="1" s="2"/>
-    <row r="617" customFormat="1" s="2"/>
-    <row r="618" customFormat="1" s="2"/>
-    <row r="619" customFormat="1" s="2"/>
-    <row r="620" customFormat="1" s="2"/>
-    <row r="621" customFormat="1" s="2"/>
-    <row r="622" customFormat="1" s="2"/>
-    <row r="623" customFormat="1" s="2"/>
-    <row r="624" customFormat="1" s="2"/>
-    <row r="625" customFormat="1" s="2"/>
-    <row r="626" customFormat="1" s="2"/>
-    <row r="627" customFormat="1" s="2"/>
-    <row r="628" customFormat="1" s="2"/>
-    <row r="629" customFormat="1" s="2"/>
-    <row r="630" customFormat="1" s="2"/>
-    <row r="631" customFormat="1" s="2"/>
-    <row r="632" customFormat="1" s="2"/>
-    <row r="633" customFormat="1" s="2"/>
-    <row r="634" customFormat="1" s="2"/>
-    <row r="635" customFormat="1" s="2"/>
-    <row r="636" customFormat="1" s="2"/>
-    <row r="637" customFormat="1" s="2"/>
-    <row r="638" customFormat="1" s="2"/>
-    <row r="639" customFormat="1" s="2"/>
-    <row r="640" customFormat="1" s="2"/>
-    <row r="641" customFormat="1" s="2"/>
-    <row r="642" customFormat="1" s="2"/>
-    <row r="643" customFormat="1" s="2"/>
-    <row r="644" customFormat="1" s="2"/>
-    <row r="645" customFormat="1" s="2"/>
-    <row r="646" customFormat="1" s="2"/>
-    <row r="647" customFormat="1" s="2"/>
-    <row r="648" customFormat="1" s="2"/>
-    <row r="649" customFormat="1" s="2"/>
-    <row r="650" customFormat="1" s="2"/>
-    <row r="651" customFormat="1" s="2"/>
-    <row r="652" customFormat="1" s="2"/>
-    <row r="653" customFormat="1" s="2"/>
-    <row r="654" customFormat="1" s="2"/>
-    <row r="655" customFormat="1" s="2"/>
-    <row r="656" customFormat="1" s="2"/>
-    <row r="657" customFormat="1" s="2"/>
-    <row r="658" customFormat="1" s="2"/>
-    <row r="659" customFormat="1" s="2"/>
-    <row r="660" customFormat="1" s="2"/>
-    <row r="661" customFormat="1" s="2"/>
-    <row r="662" customFormat="1" s="2"/>
-    <row r="663" customFormat="1" s="2"/>
-    <row r="664" customFormat="1" s="2"/>
-    <row r="665" customFormat="1" s="2"/>
-    <row r="666" customFormat="1" s="2"/>
-    <row r="667" customFormat="1" s="2"/>
-    <row r="668" customFormat="1" s="2"/>
-    <row r="669" customFormat="1" s="2"/>
-    <row r="670" customFormat="1" s="2"/>
-    <row r="671" customFormat="1" s="2"/>
-    <row r="672" customFormat="1" s="2"/>
-    <row r="673" customFormat="1" s="2"/>
-    <row r="674" customFormat="1" s="2"/>
-    <row r="675" customFormat="1" s="2"/>
-    <row r="676" customFormat="1" s="2"/>
-    <row r="677" customFormat="1" s="2"/>
-    <row r="678" customFormat="1" s="2"/>
-    <row r="679" customFormat="1" s="2"/>
-    <row r="680" customFormat="1" s="2"/>
-    <row r="681" customFormat="1" s="2"/>
-    <row r="682" customFormat="1" s="2"/>
-    <row r="683" customFormat="1" s="2"/>
-    <row r="684" customFormat="1" s="2"/>
-    <row r="685" customFormat="1" s="2"/>
-    <row r="686" customFormat="1" s="2"/>
-    <row r="687" customFormat="1" s="2"/>
-    <row r="688" customFormat="1" s="2"/>
-    <row r="689" customFormat="1" s="2"/>
-    <row r="690" customFormat="1" s="2"/>
-    <row r="691" customFormat="1" s="2"/>
-    <row r="692" customFormat="1" s="2"/>
-    <row r="693" customFormat="1" s="2"/>
-    <row r="694" customFormat="1" s="2"/>
-    <row r="695" customFormat="1" s="2"/>
-    <row r="696" customFormat="1" s="2"/>
-    <row r="697" customFormat="1" s="2"/>
-    <row r="698" customFormat="1" s="2"/>
-    <row r="699" customFormat="1" s="2"/>
-    <row r="700" customFormat="1" s="2"/>
-    <row r="701" customFormat="1" s="2"/>
-    <row r="702" customFormat="1" s="2"/>
-    <row r="703" customFormat="1" s="2"/>
-    <row r="704" customFormat="1" s="2"/>
-    <row r="705" customFormat="1" s="2"/>
-    <row r="706" customFormat="1" s="2"/>
-    <row r="707" customFormat="1" s="2"/>
-    <row r="708" customFormat="1" s="2"/>
-    <row r="709" customFormat="1" s="2"/>
-    <row r="710" customFormat="1" s="2"/>
-    <row r="711" customFormat="1" s="2"/>
-    <row r="712" customFormat="1" s="2"/>
-    <row r="713" customFormat="1" s="2"/>
-    <row r="714" customFormat="1" s="2"/>
-    <row r="715" customFormat="1" s="2"/>
-    <row r="716" customFormat="1" s="2"/>
-    <row r="717" customFormat="1" s="2"/>
-    <row r="718" customFormat="1" s="2"/>
-    <row r="719" customFormat="1" s="2"/>
-    <row r="720" customFormat="1" s="2"/>
-    <row r="721" customFormat="1" s="2"/>
-    <row r="722" customFormat="1" s="2"/>
-    <row r="723" customFormat="1" s="2"/>
-    <row r="724" customFormat="1" s="2"/>
-    <row r="725" customFormat="1" s="2"/>
-    <row r="726" customFormat="1" s="2"/>
-    <row r="727" customFormat="1" s="2"/>
-    <row r="728" customFormat="1" s="2"/>
-    <row r="729" customFormat="1" s="2"/>
-    <row r="730" customFormat="1" s="2"/>
-    <row r="731" customFormat="1" s="2"/>
-    <row r="732" customFormat="1" s="2"/>
-    <row r="733" customFormat="1" s="2"/>
-    <row r="734" customFormat="1" s="2"/>
-    <row r="735" customFormat="1" s="2"/>
-    <row r="736" customFormat="1" s="2"/>
-    <row r="737" customFormat="1" s="2"/>
-    <row r="738" customFormat="1" s="2"/>
-    <row r="739" customFormat="1" s="2"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja26">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22" customWidth="1" style="13" min="1" max="1"/>
-    <col width="22.85546875" customWidth="1" style="13" min="2" max="2"/>
-    <col width="19.85546875" customWidth="1" style="1" min="3" max="4"/>
-    <col width="11.42578125" customWidth="1" style="13" min="5" max="16384"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="13">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>1. Censo de aves acuáticas en el Parque Natural de la Albufera. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="17" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="n"/>
-      <c r="B2" s="17" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="26.25" customHeight="1" s="13">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="11" t="n"/>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Ejemplares que hibernan</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>Parejas que nidifican</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" s="13">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>Nombre común</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>Nombre científico</t>
-        </is>
-      </c>
-      <c r="C4" s="14" t="inlineStr">
-        <is>
-          <t>Enero 2023</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>Primavera-verano 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="13">
-      <c r="A5" s="17" t="inlineStr">
-        <is>
-          <t>Andarríos chico</t>
-        </is>
-      </c>
-      <c r="B5" s="17" t="inlineStr">
-        <is>
-          <t>Actitis hypoleucos</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="13">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>Ánade rabudo</t>
-        </is>
-      </c>
-      <c r="B6" s="15" t="inlineStr">
-        <is>
-          <t>Anas acuta</t>
-        </is>
-      </c>
-      <c r="C6" s="16" t="n">
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="16">
         <v>267</v>
       </c>
-      <c r="D6" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="13">
-      <c r="A7" s="17" t="inlineStr">
-        <is>
-          <t>Cuchara común</t>
-        </is>
-      </c>
-      <c r="B7" s="17" t="inlineStr">
-        <is>
-          <t>Anas clypeata</t>
-        </is>
-      </c>
-      <c r="C7" s="18" t="n">
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="18">
         <v>9916</v>
       </c>
-      <c r="D7" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="13">
-      <c r="A8" s="15" t="inlineStr">
-        <is>
-          <t>Cerceta común</t>
-        </is>
-      </c>
-      <c r="B8" s="15" t="inlineStr">
-        <is>
-          <t>Anas crecca</t>
-        </is>
-      </c>
-      <c r="C8" s="16" t="n">
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="16">
         <v>5302</v>
       </c>
-      <c r="D8" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="13">
-      <c r="A9" s="17" t="inlineStr">
-        <is>
-          <t>Anade silbón</t>
-        </is>
-      </c>
-      <c r="B9" s="17" t="inlineStr">
-        <is>
-          <t>Anas penelope</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="n">
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="13">
-      <c r="A10" s="15" t="inlineStr">
-        <is>
-          <t>Anade azulón</t>
-        </is>
-      </c>
-      <c r="B10" s="15" t="inlineStr">
-        <is>
-          <t>Anas platyrhynchos</t>
-        </is>
-      </c>
-      <c r="C10" s="16" t="n">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="16">
         <v>11409</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="16">
         <v>3026</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="13">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>Cerceta carretona</t>
-        </is>
-      </c>
-      <c r="B11" s="17" t="inlineStr">
-        <is>
-          <t>Anas querquedula</t>
-        </is>
-      </c>
-      <c r="C11" s="18" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="18">
         <v>2</v>
       </c>
-      <c r="D11" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="13">
-      <c r="A12" s="15" t="inlineStr">
-        <is>
-          <t>Ánade friso</t>
-        </is>
-      </c>
-      <c r="B12" s="15" t="inlineStr">
-        <is>
-          <t>Anas strepera</t>
-        </is>
-      </c>
-      <c r="C12" s="16" t="n">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="16">
         <v>91</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="13">
-      <c r="A13" s="17" t="inlineStr">
-        <is>
-          <t>Ánsar común</t>
-        </is>
-      </c>
-      <c r="B13" s="17" t="inlineStr">
-        <is>
-          <t>Anser anser</t>
-        </is>
-      </c>
-      <c r="C13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="13">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>Garza real</t>
-        </is>
-      </c>
-      <c r="B14" s="15" t="inlineStr">
-        <is>
-          <t>Ardea cinerea</t>
-        </is>
-      </c>
-      <c r="C14" s="16" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="16">
         <v>1490</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="20">
         <v>386</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="13">
-      <c r="A15" s="17" t="inlineStr">
-        <is>
-          <t>Garza imperial</t>
-        </is>
-      </c>
-      <c r="B15" s="17" t="inlineStr">
-        <is>
-          <t>Ardea purpurea</t>
-        </is>
-      </c>
-      <c r="C15" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
         <v>21</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="13">
-      <c r="A16" s="15" t="inlineStr">
-        <is>
-          <t>Garcilla cangrejera</t>
-        </is>
-      </c>
-      <c r="B16" s="15" t="inlineStr">
-        <is>
-          <t>Ardeola ralloides</t>
-        </is>
-      </c>
-      <c r="C16" s="20" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="20">
         <v>1</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="16">
         <v>81</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="13">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>Porrón europeo</t>
-        </is>
-      </c>
-      <c r="B17" s="17" t="inlineStr">
-        <is>
-          <t>Aythya ferina</t>
-        </is>
-      </c>
-      <c r="C17" s="18" t="n">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="18">
         <v>120</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="13">
-      <c r="A18" s="15" t="inlineStr">
-        <is>
-          <t>Porrón moñudo</t>
-        </is>
-      </c>
-      <c r="B18" s="15" t="inlineStr">
-        <is>
-          <t>Aythya fuligula</t>
-        </is>
-      </c>
-      <c r="C18" s="16" t="n">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="13">
-      <c r="A19" s="17" t="inlineStr">
-        <is>
-          <t>Porrón pardo</t>
-        </is>
-      </c>
-      <c r="B19" s="17" t="inlineStr">
-        <is>
-          <t>Aythya nyroca</t>
-        </is>
-      </c>
-      <c r="C19" s="18" t="n">
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="18">
         <v>1</v>
       </c>
-      <c r="D19" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="13">
-      <c r="A20" s="15" t="inlineStr">
-        <is>
-          <t>Avetoro común</t>
-        </is>
-      </c>
-      <c r="B20" s="15" t="inlineStr">
-        <is>
-          <t>Botaurus stellaris</t>
-        </is>
-      </c>
-      <c r="C20" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="13">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>Garcilla bueyera</t>
-        </is>
-      </c>
-      <c r="B21" s="17" t="inlineStr">
-        <is>
-          <t>Bubulcus ibis</t>
-        </is>
-      </c>
-      <c r="C21" s="18" t="n">
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="18">
         <v>533</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="19">
         <v>1373</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="13">
-      <c r="A22" s="15" t="inlineStr">
-        <is>
-          <t>Correlimos tridáctilo</t>
-        </is>
-      </c>
-      <c r="B22" s="15" t="inlineStr">
-        <is>
-          <t>Calidris alba</t>
-        </is>
-      </c>
-      <c r="C22" s="16" t="n">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="16">
         <v>110</v>
       </c>
-      <c r="D22" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="13">
-      <c r="A23" s="17" t="inlineStr">
-        <is>
-          <t>Correlimos común</t>
-        </is>
-      </c>
-      <c r="B23" s="17" t="inlineStr">
-        <is>
-          <t>Calidris alpina</t>
-        </is>
-      </c>
-      <c r="C23" s="18" t="n">
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="18">
         <v>1103</v>
       </c>
-      <c r="D23" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="13">
-      <c r="A24" s="15" t="inlineStr">
-        <is>
-          <t>Correlimos gordo</t>
-        </is>
-      </c>
-      <c r="B24" s="15" t="inlineStr">
-        <is>
-          <t>Calidris canutus</t>
-        </is>
-      </c>
-      <c r="C24" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="13">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>Correlimos menudo</t>
-        </is>
-      </c>
-      <c r="B25" s="17" t="inlineStr">
-        <is>
-          <t>Calidris minuta</t>
-        </is>
-      </c>
-      <c r="C25" s="18" t="n">
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="18">
         <v>146</v>
       </c>
-      <c r="D25" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="13">
-      <c r="A26" s="15" t="inlineStr">
-        <is>
-          <t>Chorlitejo patinegro</t>
-        </is>
-      </c>
-      <c r="B26" s="15" t="inlineStr">
-        <is>
-          <t>Charadrius alexandrinus</t>
-        </is>
-      </c>
-      <c r="C26" s="16" t="n">
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="16">
         <v>36</v>
       </c>
-      <c r="D26" s="20" t="n">
+      <c r="D26" s="20">
         <v>56</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="13">
-      <c r="A27" s="17" t="inlineStr">
-        <is>
-          <t>Chorlitejo chico</t>
-        </is>
-      </c>
-      <c r="B27" s="17" t="inlineStr">
-        <is>
-          <t>Charadrius dubius</t>
-        </is>
-      </c>
-      <c r="C27" s="18" t="n">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="18">
         <v>13</v>
       </c>
-      <c r="D27" s="19" t="n">
+      <c r="D27" s="19">
         <v>13</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="13">
-      <c r="A28" s="15" t="inlineStr">
-        <is>
-          <t>Chorlitejo grande</t>
-        </is>
-      </c>
-      <c r="B28" s="15" t="inlineStr">
-        <is>
-          <t>Charadrius hiaticula</t>
-        </is>
-      </c>
-      <c r="C28" s="16" t="n">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="16">
         <v>100</v>
       </c>
-      <c r="D28" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="13">
-      <c r="A29" s="17" t="inlineStr">
-        <is>
-          <t>Fumarel cariblanco</t>
-        </is>
-      </c>
-      <c r="B29" s="17" t="inlineStr">
-        <is>
-          <t>Chlidonias hybridus</t>
-        </is>
-      </c>
-      <c r="C29" s="18" t="n">
+      <c r="D28" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="18">
         <v>19</v>
       </c>
-      <c r="D29" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="13">
-      <c r="A30" s="15" t="inlineStr">
-        <is>
-          <t>Aguilucho lagunero</t>
-        </is>
-      </c>
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>Circus aeruginosus</t>
-        </is>
-      </c>
-      <c r="C30" s="16" t="n">
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="16">
         <v>118</v>
       </c>
-      <c r="D30" s="20" t="n">
+      <c r="D30" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="13">
-      <c r="A31" s="17" t="inlineStr">
-        <is>
-          <t>Garceta grande</t>
-        </is>
-      </c>
-      <c r="B31" s="17" t="inlineStr">
-        <is>
-          <t>Egretta alba</t>
-        </is>
-      </c>
-      <c r="C31" s="18" t="n">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="18">
         <v>268</v>
       </c>
-      <c r="D31" s="19" t="n">
+      <c r="D31" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="13">
-      <c r="A32" s="15" t="inlineStr">
-        <is>
-          <t>Garceta común</t>
-        </is>
-      </c>
-      <c r="B32" s="15" t="inlineStr">
-        <is>
-          <t>Egretta garzetta</t>
-        </is>
-      </c>
-      <c r="C32" s="16" t="n">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="16">
         <v>3672</v>
       </c>
-      <c r="D32" s="20" t="n">
+      <c r="D32" s="20">
         <v>1192</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="13">
-      <c r="A33" s="17" t="inlineStr">
-        <is>
-          <t>Focha común</t>
-        </is>
-      </c>
-      <c r="B33" s="17" t="inlineStr">
-        <is>
-          <t>Fulica atra</t>
-        </is>
-      </c>
-      <c r="C33" s="18" t="n">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="18">
         <v>2226</v>
       </c>
-      <c r="D33" s="19" t="n">
+      <c r="D33" s="19">
         <v>42</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="13">
-      <c r="A34" s="15" t="inlineStr">
-        <is>
-          <t>Focha moruna</t>
-        </is>
-      </c>
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t>Fulica cristata</t>
-        </is>
-      </c>
-      <c r="C34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="20" t="n">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="13">
-      <c r="A35" s="17" t="inlineStr">
-        <is>
-          <t>Agachadiza común</t>
-        </is>
-      </c>
-      <c r="B35" s="17" t="inlineStr">
-        <is>
-          <t>Gallinago gallinago</t>
-        </is>
-      </c>
-      <c r="C35" s="18" t="n">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="18">
         <v>283</v>
       </c>
-      <c r="D35" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="13">
-      <c r="A36" s="15" t="inlineStr">
-        <is>
-          <t>Gallineta común</t>
-        </is>
-      </c>
-      <c r="B36" s="15" t="inlineStr">
-        <is>
-          <t>Gallinula chloropus</t>
-        </is>
-      </c>
-      <c r="C36" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D36" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" s="13">
-      <c r="A37" s="17" t="inlineStr">
-        <is>
-          <t>Pagaza piconegra</t>
-        </is>
-      </c>
-      <c r="B37" s="17" t="inlineStr">
-        <is>
-          <t>Gelochelidon nilotica</t>
-        </is>
-      </c>
-      <c r="C37" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="19" t="n">
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19">
         <v>989</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="13">
-      <c r="A38" s="15" t="inlineStr">
-        <is>
-          <t>Canastera común</t>
-        </is>
-      </c>
-      <c r="B38" s="15" t="inlineStr">
-        <is>
-          <t>Glareola pratincola</t>
-        </is>
-      </c>
-      <c r="C38" s="16" t="n">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="16">
         <v>1</v>
       </c>
-      <c r="D38" s="20" t="n">
+      <c r="D38" s="20">
         <v>38</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="13">
-      <c r="A39" s="17" t="inlineStr">
-        <is>
-          <t>Grulla común</t>
-        </is>
-      </c>
-      <c r="B39" s="17" t="inlineStr">
-        <is>
-          <t>Grus grus</t>
-        </is>
-      </c>
-      <c r="C39" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="13">
-      <c r="A40" s="15" t="inlineStr">
-        <is>
-          <t>Cigüeñuela común</t>
-        </is>
-      </c>
-      <c r="B40" s="15" t="inlineStr">
-        <is>
-          <t>Himantopus himantopus</t>
-        </is>
-      </c>
-      <c r="C40" s="16" t="n">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="16">
         <v>982</v>
       </c>
-      <c r="D40" s="20" t="n">
+      <c r="D40" s="20">
         <v>777</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="13">
-      <c r="A41" s="17" t="inlineStr">
-        <is>
-          <t>Avetorillo común</t>
-        </is>
-      </c>
-      <c r="B41" s="17" t="inlineStr">
-        <is>
-          <t>Ixobrychus minutus</t>
-        </is>
-      </c>
-      <c r="C41" s="18" t="n">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="18">
         <v>7</v>
       </c>
-      <c r="D41" s="19" t="n">
+      <c r="D41" s="19">
         <v>51</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="13">
-      <c r="A42" s="15" t="inlineStr">
-        <is>
-          <t>Gaviota cabecinegra</t>
-        </is>
-      </c>
-      <c r="B42" s="15" t="inlineStr">
-        <is>
-          <t>L. melanocephalus</t>
-        </is>
-      </c>
-      <c r="C42" s="16" t="n">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="16">
         <v>2</v>
       </c>
-      <c r="D42" s="20" t="n">
+      <c r="D42" s="20">
         <v>1699</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="13">
-      <c r="A43" s="17" t="inlineStr">
-        <is>
-          <t>Gaviota argéntea</t>
-        </is>
-      </c>
-      <c r="B43" s="17" t="inlineStr">
-        <is>
-          <t>Larus argentatus</t>
-        </is>
-      </c>
-      <c r="C43" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="13">
-      <c r="A44" s="15" t="inlineStr">
-        <is>
-          <t>Gaviota de Audouin</t>
-        </is>
-      </c>
-      <c r="B44" s="15" t="inlineStr">
-        <is>
-          <t>Larus audouinii</t>
-        </is>
-      </c>
-      <c r="C44" s="16" t="n">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="18">
+        <v>0</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="16">
         <v>107</v>
       </c>
-      <c r="D44" s="20" t="n">
+      <c r="D44" s="20">
         <v>762</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="13">
-      <c r="A45" s="17" t="inlineStr">
-        <is>
-          <t>Gaviota sombría</t>
-        </is>
-      </c>
-      <c r="B45" s="17" t="inlineStr">
-        <is>
-          <t>Larus fuscus</t>
-        </is>
-      </c>
-      <c r="C45" s="18" t="n">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="18">
         <v>4735</v>
       </c>
-      <c r="D45" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1" s="13">
-      <c r="A46" s="15" t="inlineStr">
-        <is>
-          <t>Gaviota picofina</t>
-        </is>
-      </c>
-      <c r="B46" s="15" t="inlineStr">
-        <is>
-          <t>Larus genei</t>
-        </is>
-      </c>
-      <c r="C46" s="16" t="n">
+      <c r="D45" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="16">
         <v>4</v>
       </c>
-      <c r="D46" s="20" t="n">
+      <c r="D46" s="20">
         <v>36</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="13">
-      <c r="A47" s="17" t="inlineStr">
-        <is>
-          <t>Gaviota patiamarilla</t>
-        </is>
-      </c>
-      <c r="B47" s="17" t="inlineStr">
-        <is>
-          <t>Larus michahellis</t>
-        </is>
-      </c>
-      <c r="C47" s="18" t="n">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="18">
         <v>10</v>
       </c>
-      <c r="D47" s="19" t="n">
+      <c r="D47" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="13">
-      <c r="A48" s="15" t="inlineStr">
-        <is>
-          <t>Gaviota reidora</t>
-        </is>
-      </c>
-      <c r="B48" s="15" t="inlineStr">
-        <is>
-          <t>Larus ridibundus</t>
-        </is>
-      </c>
-      <c r="C48" s="16" t="n">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="16">
         <v>33500</v>
       </c>
-      <c r="D48" s="20" t="n">
+      <c r="D48" s="20">
         <v>709</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="13">
-      <c r="A49" s="17" t="inlineStr">
-        <is>
-          <t>Aguja colipinta</t>
-        </is>
-      </c>
-      <c r="B49" s="17" t="inlineStr">
-        <is>
-          <t>Limosa lapponica</t>
-        </is>
-      </c>
-      <c r="C49" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1" s="13">
-      <c r="A50" s="15" t="inlineStr">
-        <is>
-          <t>Aguja colinegra</t>
-        </is>
-      </c>
-      <c r="B50" s="15" t="inlineStr">
-        <is>
-          <t>Limosa limosa</t>
-        </is>
-      </c>
-      <c r="C50" s="16" t="n">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="18">
+        <v>0</v>
+      </c>
+      <c r="D49" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="16">
         <v>176</v>
       </c>
-      <c r="D50" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1" s="13">
-      <c r="A51" s="17" t="inlineStr">
-        <is>
-          <t>Agachadiza chica</t>
-        </is>
-      </c>
-      <c r="B51" s="17" t="inlineStr">
-        <is>
-          <t>Lymnocryptes minimus</t>
-        </is>
-      </c>
-      <c r="C51" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D51" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1" s="13">
-      <c r="A52" s="15" t="inlineStr">
-        <is>
-          <t>Cerceta pardilla</t>
-        </is>
-      </c>
-      <c r="B52" s="15" t="inlineStr">
-        <is>
-          <t>Marmorenetta angustirostris</t>
-        </is>
-      </c>
-      <c r="C52" s="16" t="n">
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="16">
         <v>4</v>
       </c>
-      <c r="D52" s="20" t="n">
+      <c r="D52" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" s="13">
-      <c r="A53" s="17" t="inlineStr">
-        <is>
-          <t>Negrón común</t>
-        </is>
-      </c>
-      <c r="B53" s="17" t="inlineStr">
-        <is>
-          <t>Melanitta nigra</t>
-        </is>
-      </c>
-      <c r="C53" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="15" customHeight="1" s="13">
-      <c r="A54" s="15" t="inlineStr">
-        <is>
-          <t>Serreta común</t>
-        </is>
-      </c>
-      <c r="B54" s="15" t="inlineStr">
-        <is>
-          <t>Mergus serrator</t>
-        </is>
-      </c>
-      <c r="C54" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="15" customHeight="1" s="13">
-      <c r="A55" s="17" t="inlineStr">
-        <is>
-          <t>Pato colorado</t>
-        </is>
-      </c>
-      <c r="B55" s="17" t="inlineStr">
-        <is>
-          <t>Netta rufina</t>
-        </is>
-      </c>
-      <c r="C55" s="18" t="n">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="18">
+        <v>0</v>
+      </c>
+      <c r="D53" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="16">
+        <v>0</v>
+      </c>
+      <c r="D54" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="18">
         <v>4247</v>
       </c>
-      <c r="D55" s="19" t="n">
+      <c r="D55" s="19">
         <v>37</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="13">
-      <c r="A56" s="15" t="inlineStr">
-        <is>
-          <t>Zarapito real</t>
-        </is>
-      </c>
-      <c r="B56" s="15" t="inlineStr">
-        <is>
-          <t>Numenius arquata</t>
-        </is>
-      </c>
-      <c r="C56" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="15" customHeight="1" s="13">
-      <c r="A57" s="17" t="inlineStr">
-        <is>
-          <t>Martinete común</t>
-        </is>
-      </c>
-      <c r="B57" s="17" t="inlineStr">
-        <is>
-          <t>Nycticorax nycticorax</t>
-        </is>
-      </c>
-      <c r="C57" s="18" t="n">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="16">
+        <v>0</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="18">
         <v>271</v>
       </c>
-      <c r="D57" s="19" t="n">
+      <c r="D57" s="19">
         <v>187</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="13">
-      <c r="A58" s="15" t="inlineStr">
-        <is>
-          <t>Malvasía cabeciblanca</t>
-        </is>
-      </c>
-      <c r="B58" s="15" t="inlineStr">
-        <is>
-          <t>Oxyura leucocephala</t>
-        </is>
-      </c>
-      <c r="C58" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="15" customHeight="1" s="13">
-      <c r="A59" s="17" t="inlineStr">
-        <is>
-          <t>Águila pescadora</t>
-        </is>
-      </c>
-      <c r="B59" s="17" t="inlineStr">
-        <is>
-          <t>Pandion haliaetus</t>
-        </is>
-      </c>
-      <c r="C59" s="18" t="n">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="16">
+        <v>0</v>
+      </c>
+      <c r="D58" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="18">
         <v>2</v>
       </c>
-      <c r="D59" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="15" customHeight="1" s="13">
-      <c r="A60" s="15" t="inlineStr">
-        <is>
-          <t>Cormorán grande</t>
-        </is>
-      </c>
-      <c r="B60" s="15" t="inlineStr">
-        <is>
-          <t>Phalacrocorax carbo</t>
-        </is>
-      </c>
-      <c r="C60" s="16" t="n">
+      <c r="D59" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="16">
         <v>612</v>
       </c>
-      <c r="D60" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="15" customHeight="1" s="13">
-      <c r="A61" s="17" t="inlineStr">
-        <is>
-          <t>Combatiente</t>
-        </is>
-      </c>
-      <c r="B61" s="17" t="inlineStr">
-        <is>
-          <t>Philomachus pugnax</t>
-        </is>
-      </c>
-      <c r="C61" s="18" t="n">
+      <c r="D60" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="18">
         <v>308</v>
       </c>
-      <c r="D61" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="15" customHeight="1" s="13">
-      <c r="A62" s="15" t="inlineStr">
-        <is>
-          <t>Flamenco común</t>
-        </is>
-      </c>
-      <c r="B62" s="15" t="inlineStr">
-        <is>
-          <t>Phoenicopterus roseus</t>
-        </is>
-      </c>
-      <c r="C62" s="16" t="n">
+      <c r="D61" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="16">
         <v>13930</v>
       </c>
-      <c r="D62" s="20" t="n">
+      <c r="D62" s="20">
         <v>5289</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="13">
-      <c r="A63" s="17" t="inlineStr">
-        <is>
-          <t>Espátula común</t>
-        </is>
-      </c>
-      <c r="B63" s="17" t="inlineStr">
-        <is>
-          <t>Platalea leucorodia</t>
-        </is>
-      </c>
-      <c r="C63" s="18" t="n">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="18">
         <v>35</v>
       </c>
-      <c r="D63" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="15" customHeight="1" s="13">
-      <c r="A64" s="15" t="inlineStr">
-        <is>
-          <t>Morito común</t>
-        </is>
-      </c>
-      <c r="B64" s="15" t="inlineStr">
-        <is>
-          <t>Plegadis falcinellus</t>
-        </is>
-      </c>
-      <c r="C64" s="16" t="n">
+      <c r="D63" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="16">
         <v>20662</v>
       </c>
-      <c r="D64" s="20" t="n">
+      <c r="D64" s="20">
         <v>3569</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="13">
-      <c r="A65" s="17" t="inlineStr">
-        <is>
-          <t>Chorlito dorado</t>
-        </is>
-      </c>
-      <c r="B65" s="17" t="inlineStr">
-        <is>
-          <t>Pluvialis apricaria</t>
-        </is>
-      </c>
-      <c r="C65" s="18" t="n">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="18">
         <v>128</v>
       </c>
-      <c r="D65" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1" s="13">
-      <c r="A66" s="15" t="inlineStr">
-        <is>
-          <t>Chorlito gris</t>
-        </is>
-      </c>
-      <c r="B66" s="15" t="inlineStr">
-        <is>
-          <t>Pluvialis squatarola</t>
-        </is>
-      </c>
-      <c r="C66" s="16" t="n">
+      <c r="D65" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="16">
         <v>47</v>
       </c>
-      <c r="D66" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="15" customHeight="1" s="13">
-      <c r="A67" s="17" t="inlineStr">
-        <is>
-          <t>Somormujo lavanco</t>
-        </is>
-      </c>
-      <c r="B67" s="17" t="inlineStr">
-        <is>
-          <t>Podiceps cristatus</t>
-        </is>
-      </c>
-      <c r="C67" s="18" t="n">
+      <c r="D66" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="18">
         <v>15</v>
       </c>
-      <c r="D67" s="19" t="n">
+      <c r="D67" s="19">
         <v>26</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" s="13">
-      <c r="A68" s="15" t="inlineStr">
-        <is>
-          <t>Zampullín cuellinegro</t>
-        </is>
-      </c>
-      <c r="B68" s="15" t="inlineStr">
-        <is>
-          <t>Podiceps nigricollis</t>
-        </is>
-      </c>
-      <c r="C68" s="16" t="n">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="16">
         <v>7</v>
       </c>
-      <c r="D68" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="15" customHeight="1" s="13">
-      <c r="A69" s="17" t="inlineStr">
-        <is>
-          <t>Calamón común</t>
-        </is>
-      </c>
-      <c r="B69" s="17" t="inlineStr">
-        <is>
-          <t>Porphyrio porphyrio</t>
-        </is>
-      </c>
-      <c r="C69" s="18" t="n">
+      <c r="D68" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="18">
         <v>95</v>
       </c>
-      <c r="D69" s="19" t="n">
+      <c r="D69" s="19">
         <v>119</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="13">
-      <c r="A70" s="15" t="inlineStr">
-        <is>
-          <t>Rascón europeo</t>
-        </is>
-      </c>
-      <c r="B70" s="15" t="inlineStr">
-        <is>
-          <t>Rallus aquaticus</t>
-        </is>
-      </c>
-      <c r="C70" s="16" t="n">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="16">
         <v>11</v>
       </c>
-      <c r="D70" s="20" t="n">
+      <c r="D70" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="13">
-      <c r="A71" s="17" t="inlineStr">
-        <is>
-          <t>Avoceta común</t>
-        </is>
-      </c>
-      <c r="B71" s="17" t="inlineStr">
-        <is>
-          <t>Recurvirostra avosetta</t>
-        </is>
-      </c>
-      <c r="C71" s="18" t="n">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="18">
         <v>53</v>
       </c>
-      <c r="D71" s="19" t="n">
+      <c r="D71" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" s="13">
-      <c r="A72" s="15" t="inlineStr">
-        <is>
-          <t>Charrancito</t>
-        </is>
-      </c>
-      <c r="B72" s="15" t="inlineStr">
-        <is>
-          <t>Sterna albifrons</t>
-        </is>
-      </c>
-      <c r="C72" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" s="20" t="n">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="16">
+        <v>0</v>
+      </c>
+      <c r="D72" s="20">
         <v>71</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1" s="13">
-      <c r="A73" s="17" t="inlineStr">
-        <is>
-          <t>Charrán común</t>
-        </is>
-      </c>
-      <c r="B73" s="17" t="inlineStr">
-        <is>
-          <t>Sterna hirundo</t>
-        </is>
-      </c>
-      <c r="C73" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="19" t="n">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="18">
+        <v>0</v>
+      </c>
+      <c r="D73" s="19">
         <v>259</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" s="13">
-      <c r="A74" s="15" t="inlineStr">
-        <is>
-          <t>Charrán patinegro</t>
-        </is>
-      </c>
-      <c r="B74" s="15" t="inlineStr">
-        <is>
-          <t>Sterna sandvicensis</t>
-        </is>
-      </c>
-      <c r="C74" s="16" t="n">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="16">
         <v>84</v>
       </c>
-      <c r="D74" s="20" t="n">
+      <c r="D74" s="20">
         <v>1370</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" s="13">
-      <c r="A75" s="17" t="inlineStr">
-        <is>
-          <t>Zampullín común</t>
-        </is>
-      </c>
-      <c r="B75" s="17" t="inlineStr">
-        <is>
-          <t>Tachybaptus ruficollis</t>
-        </is>
-      </c>
-      <c r="C75" s="18" t="n">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="18">
         <v>54</v>
       </c>
-      <c r="D75" s="19" t="n">
+      <c r="D75" s="19">
         <v>38</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" s="13">
-      <c r="A76" s="15" t="inlineStr">
-        <is>
-          <t>Tarro blanco</t>
-        </is>
-      </c>
-      <c r="B76" s="15" t="inlineStr">
-        <is>
-          <t>Tadorna tadorna</t>
-        </is>
-      </c>
-      <c r="C76" s="16" t="n">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="16">
         <v>2949</v>
       </c>
-      <c r="D76" s="20" t="n">
+      <c r="D76" s="20">
         <v>13</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" s="13">
-      <c r="A77" s="17" t="inlineStr">
-        <is>
-          <t>Archibebe oscuro</t>
-        </is>
-      </c>
-      <c r="B77" s="17" t="inlineStr">
-        <is>
-          <t>Tringa erytrophus</t>
-        </is>
-      </c>
-      <c r="C77" s="18" t="n">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="18">
         <v>83</v>
       </c>
-      <c r="D77" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="15" customHeight="1" s="13">
-      <c r="A78" s="15" t="inlineStr">
-        <is>
-          <t>Andarríos bastardo</t>
-        </is>
-      </c>
-      <c r="B78" s="15" t="inlineStr">
-        <is>
-          <t>Tringa glareola</t>
-        </is>
-      </c>
-      <c r="C78" s="16" t="n">
+      <c r="D77" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="16">
         <v>8</v>
       </c>
-      <c r="D78" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="15" customHeight="1" s="13">
-      <c r="A79" s="17" t="inlineStr">
-        <is>
-          <t>Archibebe claro</t>
-        </is>
-      </c>
-      <c r="B79" s="17" t="inlineStr">
-        <is>
-          <t>Tringa nebularia</t>
-        </is>
-      </c>
-      <c r="C79" s="18" t="n">
+      <c r="D78" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="18">
         <v>165</v>
       </c>
-      <c r="D79" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="15" customHeight="1" s="13">
-      <c r="A80" s="15" t="inlineStr">
-        <is>
-          <t>Andarríos grande</t>
-        </is>
-      </c>
-      <c r="B80" s="15" t="inlineStr">
-        <is>
-          <t>Tringa ochropus</t>
-        </is>
-      </c>
-      <c r="C80" s="16" t="n">
+      <c r="D79" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="16">
         <v>46</v>
       </c>
-      <c r="D80" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" ht="15" customHeight="1" s="13">
-      <c r="A81" s="17" t="inlineStr">
-        <is>
-          <t>Archibebe común</t>
-        </is>
-      </c>
-      <c r="B81" s="17" t="inlineStr">
-        <is>
-          <t>Tringa totanus</t>
-        </is>
-      </c>
-      <c r="C81" s="18" t="n">
+      <c r="D80" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="18">
         <v>7</v>
       </c>
-      <c r="D81" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="15" customHeight="1" s="13">
-      <c r="A82" s="15" t="inlineStr">
-        <is>
-          <t>Avefría europea</t>
-        </is>
-      </c>
-      <c r="B82" s="15" t="inlineStr">
-        <is>
-          <t>Vanellus vanellus</t>
-        </is>
-      </c>
-      <c r="C82" s="16" t="n">
+      <c r="D81" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="16">
         <v>1024</v>
       </c>
-      <c r="D82" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" ht="12.75" customHeight="1" s="13">
-      <c r="A83" s="8" t="inlineStr">
-        <is>
-          <t>Nota: (-) No estimado. Los censos de hibernada se refieren al número de ejemplres contados en enero 2023.</t>
-        </is>
-      </c>
-      <c r="B83" s="8" t="n"/>
-      <c r="C83" s="21" t="n"/>
-      <c r="D83" s="21" t="n"/>
-    </row>
-    <row r="84" ht="12.75" customHeight="1" s="13">
-      <c r="A84" s="8" t="inlineStr">
-        <is>
-          <t>Los censos de nidificantes se refieren al número de parejas reproductoras estimadas durante la primavera 2023.</t>
-        </is>
-      </c>
-      <c r="B84" s="8" t="n"/>
-      <c r="C84" s="21" t="n"/>
-      <c r="D84" s="21" t="n"/>
-    </row>
-    <row r="85" ht="12.75" customFormat="1" customHeight="1" s="24">
-      <c r="A85" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Censos realizados con la colaboración del Servicio Devesa-Albufera del Ajuntamiento de València y SEO/BirdLife; </t>
-        </is>
-      </c>
-      <c r="B85" s="24" t="n"/>
-      <c r="C85" s="23" t="n"/>
-      <c r="D85" s="23" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="9" t="inlineStr">
-        <is>
-          <t>Datos compilados por el Servicio de Vida Silvestre de la Dirección General de Medio Natural y de Evaluación Ambiental de la Generalitat Valenciana.</t>
-        </is>
+      <c r="D82" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="2" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="2" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>